--- a/ks_terminal버튼_조건분석.xlsx
+++ b/ks_terminal버튼_조건분석.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>kubesphere admin의 파드 컨테이너 화면에서 터미널 버튼이 보이는 조건 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>그 외에 Project에서 신규 생성한 Role 이 Application Workloads &gt; Application Workload Management 권한을 가진다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Roles, Workspace Roles, Project Roles의 조건에 따라 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터미널 아이콘은 로그인한 사용자의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보여지기도 하고,  안보여 지기도 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,13 +160,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -195,13 +207,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -242,13 +254,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -289,13 +301,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -349,7 +361,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1973041" cy="336246"/>
@@ -406,7 +418,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2287036" cy="336246"/>
@@ -463,13 +475,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -510,13 +522,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -570,13 +582,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -630,13 +642,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -677,13 +689,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -737,13 +749,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -784,13 +796,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -844,13 +856,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -891,13 +903,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -951,13 +963,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1011,13 +1023,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1072,7 +1084,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1393715" cy="291875"/>
@@ -1132,7 +1144,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1393715" cy="291875"/>
@@ -1192,7 +1204,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1393715" cy="291875"/>
@@ -1252,13 +1264,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>674248</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>93032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>417073</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>14846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1314,13 +1326,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,13 +1373,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1408,13 +1420,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1468,13 +1480,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1528,13 +1540,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1589,13 +1601,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1649,13 +1661,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1709,7 +1721,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1393715" cy="291875"/>
@@ -1769,7 +1781,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1393715" cy="291875"/>
@@ -1829,13 +1841,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1876,13 +1888,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>208359</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>134044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>414974</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>143569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1938,13 +1950,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46046</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>94569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>474671</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>144540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2000,13 +2012,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>149559</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>164054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569539</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>173579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2062,13 +2074,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2122,13 +2134,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2182,7 +2194,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1393715" cy="291875"/>
@@ -2526,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2537,78 +2549,96 @@
     <col min="1" max="4" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="C104" t="s">
+    <row r="107" spans="1:3">
+      <c r="C107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
-      <c r="C161" t="s">
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
         <v>9</v>
       </c>
     </row>
